--- a/Mifos Automation Excels/Client/4063-CREATECLIENT-DISBURSELOAN-WRITEOFFLOAN-CLOSECLIENT.xlsx
+++ b/Mifos Automation Excels/Client/4063-CREATECLIENT-DISBURSELOAN-WRITEOFFLOAN-CLOSECLIENT.xlsx
@@ -157,9 +157,6 @@
     <t>submit</t>
   </si>
   <si>
-    <t>389-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-B-EarlyRePayment</t>
-  </si>
-  <si>
     <t>maximumallowedoutstandingbalance</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>principal</t>
+  </si>
+  <si>
+    <t>3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -262,7 +262,6 @@
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,7 +661,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -683,8 +682,8 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>46</v>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,32 +703,32 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="15">
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6">
         <v>42005</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>51</v>
+      <c r="A8" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="7">
         <v>10000</v>
